--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CurrentProjects\AI+yao\metabolism\microbiomeMetabolism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F9B40D-F3B5-40AF-A6B7-E17FB0C2576C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D011D2B-CDCA-430C-B68F-AF44B1285C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{99BDC527-B973-4F10-87F4-7125B4637424}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>plan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,15 +75,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Huang/Zhou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>训练Generator到SOTA水平(在预测EnzymeFunction水平上)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先准备小样本，用于跑通脚本，在Step2开始前全部整理完</t>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小样本准备完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepEC/?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机生成的protseq-EC的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniprot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菌，EC，负样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reaxys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMILES2SMILES反应数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jc网络出来，测试能否真的迁移出来知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh整理下载下来，发给jc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,18 +480,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86191E0D-E0BA-411C-A436-3BCF7DE1B55B}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,62 +504,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
